--- a/MeshBean_R1_BOM.xlsx
+++ b/MeshBean_R1_BOM.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
-    <t xml:space="preserve">Treefrog-Array R1</t>
+    <t xml:space="preserve">MeshBean R1</t>
   </si>
   <si>
     <t xml:space="preserve">This is for a single node, some antenna options may be redundant so pick the one that best suits your needs</t>
@@ -143,13 +143,11 @@
     <font>
       <b/>
       <sz val="18.000000"/>
-      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="11.000000"/>
-      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -160,7 +158,6 @@
     </font>
     <font>
       <sz val="10.000000"/>
-      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -184,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -196,46 +193,7 @@
       <left style="thin">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
+      <right style="none"/>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
       </top>
@@ -245,9 +203,7 @@
       <diagonal style="none"/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
+      <left style="none"/>
       <right style="none"/>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
@@ -271,8 +227,12 @@
       <diagonal style="none"/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
       </top>
@@ -285,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="36">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -320,10 +280,10 @@
     <xf fontId="2" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -347,16 +307,16 @@
     <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -369,18 +329,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -394,16 +348,6 @@
     </xf>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1111,7 +1055,7 @@
       <c r="C9" s="20">
         <v>1</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="21"/>
@@ -1135,13 +1079,13 @@
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="28">
         <v>1</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="14"/>
@@ -1169,11 +1113,11 @@
       <c r="C11" s="16">
         <v>1</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="15"/>
@@ -1194,8 +1138,8 @@
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="17"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="15"/>
@@ -1217,7 +1161,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="33"/>
+      <c r="F13" s="31"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="15"/>
@@ -1236,8 +1180,8 @@
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
       <c r="G14" s="14"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -1256,8 +1200,8 @@
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30"/>
       <c r="G15" s="14"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
@@ -1276,8 +1220,8 @@
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
       <c r="G16" s="14"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -1321,7 +1265,7 @@
       <c r="C18" s="20">
         <v>1</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="32" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="21"/>
@@ -1346,10 +1290,10 @@
       <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="33">
         <v>1</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="34" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1357,13 +1301,13 @@
       <c r="A20" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="33">
         <v>1</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="34" t="s">
         <v>21</v>
       </c>
       <c r="E20" t="s">
@@ -1374,13 +1318,13 @@
       <c r="A21" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="33">
         <v>1</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="34" t="s">
         <v>21</v>
       </c>
       <c r="E21" t="s">
@@ -1394,32 +1338,32 @@
       <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="33">
         <v>1</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="41"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="27"/>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" t="s">
@@ -1428,10 +1372,10 @@
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="34" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1442,32 +1386,32 @@
       <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="33">
         <v>1</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="34" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="27"/>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
@@ -1476,7 +1420,7 @@
       <c r="B28" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="33">
         <v>1</v>
       </c>
       <c r="E28" t="s">
@@ -1490,7 +1434,7 @@
       <c r="B29" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="33">
         <v>2</v>
       </c>
     </row>
@@ -1501,7 +1445,7 @@
       <c r="B30" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="33">
         <v>4</v>
       </c>
     </row>
@@ -1512,7 +1456,7 @@
       <c r="B31" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="33">
         <v>2</v>
       </c>
     </row>

--- a/MeshBean_R1_BOM.xlsx
+++ b/MeshBean_R1_BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">MeshBean R1</t>
   </si>
@@ -42,91 +42,61 @@
     <t>Notes</t>
   </si>
   <si>
+    <t xml:space="preserve">1kg ASA</t>
+  </si>
+  <si>
     <t>Structural</t>
   </si>
   <si>
-    <t xml:space="preserve">Treefrog Cleat - Large</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self Sourced</t>
+    <t xml:space="preserve">2" SCH40 PVC pipe 85.25mm</t>
   </si>
   <si>
     <t>optional</t>
   </si>
   <si>
-    <t xml:space="preserve">Alu Unistrut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unistrut 90deg bracket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metal Project Box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breather valve</t>
+    <t xml:space="preserve">2" SCH40 PVC End Cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silicone sealant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip ties (stainless steel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5-3" copper tape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4" Cable Gland</t>
   </si>
   <si>
     <t>Electronics</t>
   </si>
   <si>
-    <t xml:space="preserve">Meshtastic Motherboard with RAK4630</t>
-  </si>
-  <si>
-    <t>lectronz.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTO 3900 mAh Battery Pack with BMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 dBi Low Profile N-Female Omni Outdoor 915 MHz </t>
-  </si>
-  <si>
-    <t>store.rokland.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pick one antenna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 dBi Low Profile N-Female Omni Outdoor 915 MHz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5W 5V Solar Panel</t>
-  </si>
-  <si>
-    <t>amazon.com</t>
+    <t xml:space="preserve">Heltec Wireless Paper</t>
+  </si>
+  <si>
+    <t>Heltec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x 18650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALFA Network AOA-915-5ACM 5 dbi Omni</t>
+  </si>
+  <si>
+    <t>Amazon</t>
   </si>
   <si>
     <t>Wiring</t>
   </si>
   <si>
-    <t xml:space="preserve">Hookup Wire</t>
-  </si>
-  <si>
-    <t>25'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remington Industries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UFL(IPEX/IPX) Mini PCI to N-MALE Pigtail Cable Extension</t>
-  </si>
-  <si>
-    <t>Hardware</t>
-  </si>
-  <si>
-    <t>Rivnuts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For cleat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lag bolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lag bolt washer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lag bolt Spring</t>
+    <t xml:space="preserve">24/2 Electrical Wire</t>
+  </si>
+  <si>
+    <t>20'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.FL IPEX to N Type Female</t>
   </si>
 </sst>
 </file>
@@ -245,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -301,6 +271,15 @@
     <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -313,32 +292,38 @@
     <xf fontId="5" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf fontId="4" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -348,6 +333,9 @@
     </xf>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,9 +954,15 @@
       <c r="R4" s="14"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
+      <c r="A5" s="15">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
       <c r="D5" s="17"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
@@ -985,36 +979,44 @@
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="21"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="14"/>
+      <c r="A7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="22" t="s">
+        <v>11</v>
+      </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
@@ -1025,46 +1027,48 @@
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
     </row>
-    <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="27"/>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="27">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="20">
+      <c r="B9" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="27">
         <v>1</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="19" t="s">
-        <v>11</v>
-      </c>
+      <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
@@ -1076,421 +1080,264 @@
       <c r="R9" s="14"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="A10" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="16">
+        <v>6</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="33">
         <v>1</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="16">
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="36"/>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="33">
         <v>1</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="36"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="21"/>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
+      <c r="A14" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="23">
+        <v>1</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="38">
+        <v>1</v>
+      </c>
+      <c r="D15" s="39"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="38">
+        <v>1</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="27"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="20">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="21"/>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="38">
         <v>1</v>
       </c>
-      <c r="D18" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="A19" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="33">
-        <v>1</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>18</v>
+      <c r="D19" s="39" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="33">
-        <v>1</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="21"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="33">
-        <v>1</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
-      </c>
+      <c r="C21" s="38"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="33">
-        <v>1</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>25</v>
-      </c>
+      <c r="C22" s="38"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="27"/>
+      <c r="C23" s="38"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="33">
-        <v>1</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="27"/>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="33">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25"/>
-    <row r="33" ht="14.25"/>
+      <c r="C24" s="38"/>
+    </row>
+    <row r="25" ht="14.25"/>
+    <row r="26" ht="14.25"/>
+    <row r="27" ht="14.25"/>
+    <row r="28" ht="14.25"/>
+    <row r="29" ht="14.25"/>
+    <row r="30" ht="14.25"/>
+    <row r="31" ht="14.25"/>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="12">
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:R6"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:R8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A13:R13"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
     <mergeCell ref="A17:R17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A23:R23"/>
-    <mergeCell ref="A27:R27"/>
+    <mergeCell ref="A20:R20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D18" tooltip=""/>
-    <hyperlink r:id="rId2" ref="D19" tooltip=""/>
-    <hyperlink r:id="rId3" ref="D20" tooltip=""/>
-    <hyperlink r:id="rId4" ref="D21" tooltip=""/>
-    <hyperlink r:id="rId5" ref="D22" tooltip=""/>
-    <hyperlink r:id="rId6" ref="D24" tooltip=""/>
-    <hyperlink r:id="rId7" ref="D25" tooltip=""/>
+    <hyperlink r:id="rId1" ref="D14" tooltip=""/>
+    <hyperlink r:id="rId2" ref="D16" tooltip=""/>
+    <hyperlink r:id="rId3" ref="D18" tooltip=""/>
+    <hyperlink r:id="rId4" ref="D19" tooltip=""/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/MeshBean_R1_BOM.xlsx
+++ b/MeshBean_R1_BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">MeshBean R1</t>
   </si>
@@ -42,9 +42,15 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>Filament</t>
+  </si>
+  <si>
     <t xml:space="preserve">1kg ASA</t>
   </si>
   <si>
+    <t>Polymaker</t>
+  </si>
+  <si>
     <t>Structural</t>
   </si>
   <si>
@@ -60,6 +66,9 @@
     <t xml:space="preserve">Silicone sealant</t>
   </si>
   <si>
+    <t>Amazon</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zip ties (stainless steel)</t>
   </si>
   <si>
@@ -72,19 +81,13 @@
     <t>Electronics</t>
   </si>
   <si>
-    <t xml:space="preserve">Heltec Wireless Paper</t>
-  </si>
-  <si>
-    <t>Heltec</t>
+    <t xml:space="preserve">Heltec V3 or similar</t>
   </si>
   <si>
     <t xml:space="preserve">2x 18650</t>
   </si>
   <si>
     <t xml:space="preserve">ALFA Network AOA-915-5ACM 5 dbi Omni</t>
-  </si>
-  <si>
-    <t>Amazon</t>
   </si>
   <si>
     <t>Wiring</t>
@@ -265,12 +268,15 @@
     <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -293,10 +299,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -316,26 +322,23 @@
     <xf fontId="4" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf fontId="5" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,68 +957,70 @@
       <c r="R4" s="14"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="15">
-        <v>1</v>
+      <c r="A5" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="16">
         <v>1</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="17" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="21"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="22"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="23">
+      <c r="A7" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="24">
         <v>1</v>
       </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="22" t="s">
-        <v>11</v>
+      <c r="I7" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -1028,11 +1033,11 @@
       <c r="R7" s="14"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>12</v>
+      <c r="A8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="C8" s="27">
         <v>1</v>
@@ -1054,18 +1059,20 @@
       <c r="R8" s="14"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>13</v>
+      <c r="A9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="27">
         <v>1</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
+      <c r="D9" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -1080,121 +1087,127 @@
       <c r="R9" s="14"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="22" t="s">
-        <v>9</v>
+      <c r="A10" s="23" t="s">
+        <v>11</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C10" s="16">
         <v>6</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="D10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="33">
+      <c r="A11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="34">
         <v>1</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="36"/>
+      <c r="D11" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="38"/>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="34">
+        <v>1</v>
+      </c>
+      <c r="D12" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="33">
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="38"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="22"/>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="24">
         <v>1</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="36"/>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="21"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="23">
-        <v>1</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
+      <c r="D14" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="22"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
@@ -1206,110 +1219,112 @@
       <c r="R14" s="14"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="22" t="s">
-        <v>17</v>
+      <c r="A15" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="39">
+        <v>1</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="38">
+      <c r="B16" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="39">
         <v>1</v>
       </c>
-      <c r="D15" s="39"/>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="A16" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="38">
-        <v>1</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>22</v>
+      <c r="D16" s="40" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="21"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="22"/>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="39" t="s">
-        <v>22</v>
+      <c r="C18" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="38">
+        <v>27</v>
+      </c>
+      <c r="C19" s="39">
         <v>1</v>
       </c>
-      <c r="D19" s="39" t="s">
-        <v>22</v>
+      <c r="D19" s="40" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="21"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="22"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="C21" s="38"/>
+      <c r="C21" s="39"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="C22" s="38"/>
+      <c r="C22" s="39"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="C23" s="38"/>
+      <c r="C23" s="39"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="C24" s="38"/>
+      <c r="C24" s="39"/>
     </row>
     <row r="25" ht="14.25"/>
     <row r="26" ht="14.25"/>
@@ -1334,10 +1349,16 @@
     <mergeCell ref="A20:R20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D14" tooltip=""/>
-    <hyperlink r:id="rId2" ref="D16" tooltip=""/>
-    <hyperlink r:id="rId3" ref="D18" tooltip=""/>
-    <hyperlink r:id="rId4" ref="D19" tooltip=""/>
+    <hyperlink r:id="rId1" ref="D5" tooltip=""/>
+    <hyperlink r:id="rId2" ref="D9" tooltip=""/>
+    <hyperlink r:id="rId3" ref="D10" tooltip=""/>
+    <hyperlink r:id="rId4" ref="D11" tooltip=""/>
+    <hyperlink r:id="rId5" ref="D12" tooltip=""/>
+    <hyperlink r:id="rId6" ref="D14" tooltip=""/>
+    <hyperlink r:id="rId7" ref="D15" tooltip=""/>
+    <hyperlink r:id="rId8" ref="D16" tooltip=""/>
+    <hyperlink r:id="rId9" ref="D18" tooltip=""/>
+    <hyperlink r:id="rId10" ref="D19" tooltip=""/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/MeshBean_R1_BOM.xlsx
+++ b/MeshBean_R1_BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">MeshBean R1</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t xml:space="preserve">U.FL IPEX to N Type Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB Type C male PCB connector</t>
   </si>
 </sst>
 </file>
@@ -218,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -338,6 +341,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1295,27 +1302,38 @@
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="22"/>
+      <c r="A20" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="39">
+        <v>1</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="C21" s="39"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="22"/>
     </row>
     <row r="22" ht="14.25">
       <c r="C22" s="39"/>
@@ -1326,13 +1344,16 @@
     <row r="24" ht="14.25">
       <c r="C24" s="39"/>
     </row>
-    <row r="25" ht="14.25"/>
+    <row r="25" ht="14.25">
+      <c r="C25" s="39"/>
+    </row>
     <row r="26" ht="14.25"/>
     <row r="27" ht="14.25"/>
     <row r="28" ht="14.25"/>
     <row r="29" ht="14.25"/>
     <row r="30" ht="14.25"/>
     <row r="31" ht="14.25"/>
+    <row r="32" ht="14.25"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A1:R1"/>
@@ -1346,7 +1367,7 @@
     <mergeCell ref="A13:R13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="A17:R17"/>
-    <mergeCell ref="A20:R20"/>
+    <mergeCell ref="A21:R21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D5" tooltip=""/>
@@ -1359,6 +1380,7 @@
     <hyperlink r:id="rId8" ref="D16" tooltip=""/>
     <hyperlink r:id="rId9" ref="D18" tooltip=""/>
     <hyperlink r:id="rId10" ref="D19" tooltip=""/>
+    <hyperlink r:id="rId11" ref="D20" tooltip=""/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
